--- a/RUDN/Importance/Varible_muatal_in_Northern Europe.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Northern Europe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="429">
   <si>
     <t>Population ages 65 and above, female</t>
   </si>
@@ -22,24 +22,24 @@
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
     <t>Female population 45-49</t>
   </si>
   <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
     <t>Male population 35-39</t>
   </si>
   <si>
     <t>Male population 75-79</t>
   </si>
   <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
     <t>Male population 45-49</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
     <t>Male population 55-59</t>
   </si>
   <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
     <t>Female population 40-44</t>
   </si>
   <si>
@@ -76,18 +76,18 @@
     <t>Age dependency ratio, young</t>
   </si>
   <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
     <t>Female population 55-59</t>
   </si>
   <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 05-09</t>
   </si>
   <si>
@@ -97,57 +97,57 @@
     <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 13, male, interpolated</t>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
   </si>
   <si>
     <t>Population ages 15-64, female</t>
   </si>
   <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
+    <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 20, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
     <t>Male population 40-44</t>
   </si>
   <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
@@ -157,189 +157,189 @@
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
     <t>Female population 20-24</t>
   </si>
   <si>
-    <t>Age population, age 12, female, interpolated</t>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
   </si>
   <si>
     <t>Population, female</t>
   </si>
   <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
     <t>Female population 10-14</t>
   </si>
   <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
     <t>Male population 50-54</t>
   </si>
   <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
-    <t>Male population 30-34</t>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
   </si>
   <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
     <t>Male population 70-74</t>
   </si>
   <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 80+</t>
   </si>
   <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
     <t>Population, total</t>
   </si>
   <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 00-04</t>
   </si>
   <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
     <t>Female population 00-04</t>
   </si>
   <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
     <t>Labor force, total</t>
   </si>
   <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
     <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 14, female, interpolated</t>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
   </si>
   <si>
     <t>Population ages 15-64, male</t>
   </si>
   <si>
-    <t>GNI, Atlas method (current US$)</t>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
   </si>
   <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
     <t>Population, female (% of total)</t>
   </si>
   <si>
-    <t>Population, male (% of total)</t>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
   </si>
   <si>
     <t>Female population 25-29</t>
   </si>
   <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
@@ -352,111 +352,111 @@
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
     <t>Population, male</t>
   </si>
   <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
     <t>Labor force, female</t>
   </si>
   <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Male population 25-29</t>
   </si>
   <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
+    <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
+    <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Female population 75-79</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+    <t>Net ODA provided, total (current US$)</t>
   </si>
   <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
@@ -487,12 +487,12 @@
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
     <t>Rural population</t>
   </si>
   <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
@@ -505,60 +505,60 @@
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Forest area (sq. km)</t>
   </si>
   <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
     <t>Total bilateral sector allocable ODA commitments (current US$)</t>
   </si>
   <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
@@ -568,12 +568,12 @@
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
@@ -604,10 +604,16 @@
     <t>Total bilateral ODA commitments (current US$)</t>
   </si>
   <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Bilateral ODA commitments that is untied (current US$)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
   </si>
   <si>
     <t>Population ages 35-39, male (% of male population)</t>
@@ -616,25 +622,22 @@
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
   </si>
   <si>
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
     <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
     <t>Population ages 40-44, female (% of female population)</t>
@@ -643,9 +646,6 @@
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
@@ -667,42 +667,45 @@
     <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
   </si>
   <si>
     <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
   </si>
   <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
@@ -712,45 +715,42 @@
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
     <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
   </si>
   <si>
     <t>Poverty headcount ratio at national poverty lines (% of population)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
@@ -769,511 +769,523 @@
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
   </si>
   <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
   </si>
   <si>
     <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
     <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
     <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
   </si>
   <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
     <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
     <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
     <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
     <t>Agricultural support estimate (% of GDP)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
+    <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
   </si>
   <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
+    <t>Improved water source, rural (% of rural population with access)</t>
   </si>
   <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
     <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
   </si>
   <si>
     <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
+    <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
     <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
   </si>
   <si>
     <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+    <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
     <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% gross)</t>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Self-employed, female (% of female employment)</t>
   </si>
   <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
     <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Physicians (per 1,000 people)</t>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
     <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
@@ -1282,19 +1294,13 @@
     <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
   </si>
   <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
+    <t>Vulnerable employment, total (% of total employment)</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B428"/>
+  <dimension ref="A1:B430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1668,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.208094089631791</v>
+        <v>1.203173464800793</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1676,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.149355558849268</v>
+        <v>1.149060674813782</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1684,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.145198203391299</v>
+        <v>1.144048424502356</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1692,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.144419163041913</v>
+        <v>1.141854421256789</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1700,7 +1706,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.141928919368597</v>
+        <v>1.139778215725992</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1708,7 +1714,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.134007815599103</v>
+        <v>1.131623404361623</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1716,7 +1722,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.132276860028429</v>
+        <v>1.131538966106444</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1724,7 +1730,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.131296606976002</v>
+        <v>1.129770350602046</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1732,7 +1738,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.131001543878103</v>
+        <v>1.128533568383812</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1740,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.128784625801639</v>
+        <v>1.128243698474998</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1748,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.120021805817338</v>
+        <v>1.119528509083439</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1756,7 +1762,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.119984888839431</v>
+        <v>1.118722262576806</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1764,7 +1770,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.116974706962097</v>
+        <v>1.116760833533938</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1772,7 +1778,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.106193422325996</v>
+        <v>1.107128796475656</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1780,7 +1786,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.103802494551799</v>
+        <v>1.103036072530217</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1788,7 +1794,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.103276572770718</v>
+        <v>1.101075825085998</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1796,7 +1802,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.102508805685646</v>
+        <v>1.099100682746631</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1804,7 +1810,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.101831536173055</v>
+        <v>1.097430698219586</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1812,7 +1818,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.09824108916802</v>
+        <v>1.096845901463308</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1820,7 +1826,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.093984531624138</v>
+        <v>1.094928525205976</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1828,7 +1834,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.086826689206073</v>
+        <v>1.089161351034344</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1836,7 +1842,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.0832656813222</v>
+        <v>1.087398306741976</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1844,7 +1850,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.081445301651627</v>
+        <v>1.080127312369091</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1852,7 +1858,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.078732649565699</v>
+        <v>1.079927977538408</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1860,7 +1866,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.076734192889507</v>
+        <v>1.07783491095451</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1868,7 +1874,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.073017288143417</v>
+        <v>1.074118006208421</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1876,7 +1882,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.06814796968191</v>
+        <v>1.069054084816135</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1884,7 +1890,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.068022987400029</v>
+        <v>1.068942222313234</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1892,7 +1898,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.066747888868901</v>
+        <v>1.066435685812727</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1900,7 +1906,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.064652120883532</v>
+        <v>1.062726609889021</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1908,7 +1914,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.061132153077696</v>
+        <v>1.060702053501634</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1916,7 +1922,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.059972407879557</v>
+        <v>1.060113957044543</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1924,7 +1930,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.059972407879557</v>
+        <v>1.059148346004771</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1932,7 +1938,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.059882694545106</v>
+        <v>1.059106640071886</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1940,7 +1946,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.057113724987539</v>
+        <v>1.058601000629839</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1948,7 +1954,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.056421572376378</v>
+        <v>1.057380873276707</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1956,7 +1962,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.056303857306911</v>
+        <v>1.055348236389249</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1964,7 +1970,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.056250202147381</v>
+        <v>1.055192550958545</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1972,7 +1978,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.056059525570341</v>
+        <v>1.05477880284068</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1980,7 +1986,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.053473002041271</v>
+        <v>1.053221940427376</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1988,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.053253995758971</v>
+        <v>1.053221940427376</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1996,7 +2002,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.053253995758971</v>
+        <v>1.050829619325631</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2004,7 +2010,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.05254036761342</v>
+        <v>1.050548996911363</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2012,7 +2018,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.049943725109044</v>
+        <v>1.050178919580522</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2020,7 +2026,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.048091778749721</v>
+        <v>1.046931437420207</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2028,7 +2034,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.047066765185706</v>
+        <v>1.045868326880492</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2036,7 +2042,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.046642883466758</v>
+        <v>1.045827314404062</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2044,7 +2050,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.04490373581138</v>
+        <v>1.044116715686208</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2052,7 +2058,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.043310640567988</v>
+        <v>1.042722484023352</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2060,7 +2066,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.042440872243599</v>
+        <v>1.040807214914774</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2068,7 +2074,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.041881789546154</v>
+        <v>1.040060072555264</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2076,7 +2082,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.039375482377705</v>
+        <v>1.039036495252683</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2084,7 +2090,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.038822850898751</v>
+        <v>1.038889116051223</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2092,7 +2098,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.037380596985952</v>
+        <v>1.038028015797531</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2100,7 +2106,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.033454624047299</v>
+        <v>1.033168203242671</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2108,7 +2114,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.032379351949351</v>
+        <v>1.032650997365106</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2116,7 +2122,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.031426139325132</v>
+        <v>1.030618376826994</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2124,7 +2130,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.028996667313362</v>
+        <v>1.030468913796573</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2132,7 +2138,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.026456003458014</v>
+        <v>1.027016474640057</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2140,7 +2146,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.025048576919864</v>
+        <v>1.02635901692078</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2148,7 +2154,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.025041025495753</v>
+        <v>1.023802931341514</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2156,7 +2162,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.024135221330419</v>
+        <v>1.021734348865708</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2164,7 +2170,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.022890154622354</v>
+        <v>1.021706286793641</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2172,7 +2178,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.022084451065667</v>
+        <v>1.021155418975987</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2180,7 +2186,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.019714046854658</v>
+        <v>1.019156782567824</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2188,7 +2194,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.018412814394674</v>
+        <v>1.016293406025265</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2196,7 +2202,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.015031312374364</v>
+        <v>1.014454229689438</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2204,7 +2210,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.011958373400339</v>
+        <v>1.009512443761427</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2212,7 +2218,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.010789902639539</v>
+        <v>1.009081014524956</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2220,7 +2226,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.009602436324535</v>
+        <v>1.006664912741648</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2228,7 +2234,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.009501384324943</v>
+        <v>1.005093839688357</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2236,7 +2242,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.005265687815692</v>
+        <v>1.004926398511313</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2244,7 +2250,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.002040730381741</v>
+        <v>1.00086744784881</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2252,7 +2258,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.9997546251425753</v>
+        <v>0.9993477583021178</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2260,7 +2266,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.9985646790039358</v>
+        <v>0.9986743782289951</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2268,7 +2274,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.998529837204106</v>
+        <v>0.9973874289583411</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2276,7 +2282,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.9980321380726509</v>
+        <v>0.9960519015335909</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2284,7 +2290,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.9967875487117972</v>
+        <v>0.9947880298714562</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2292,7 +2298,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.9957800933635199</v>
+        <v>0.9928212473102942</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2300,7 +2306,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.9952683372573841</v>
+        <v>0.9928162782968442</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2308,7 +2314,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.9912890168918098</v>
+        <v>0.9896186703906364</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2316,7 +2322,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.9889221409308218</v>
+        <v>0.9882131333372799</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2324,7 +2330,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.9871129975241146</v>
+        <v>0.9878303720159987</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2332,7 +2338,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9866426783427591</v>
+        <v>0.987818687853685</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2340,7 +2346,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.9851617952983069</v>
+        <v>0.9840192215526358</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2348,7 +2354,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9850660874819015</v>
+        <v>0.982189486305058</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2356,7 +2362,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.9826631164351909</v>
+        <v>0.9820808708464148</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2364,7 +2370,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.9806990753258518</v>
+        <v>0.9817039936402288</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2372,7 +2378,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.9789700510124519</v>
+        <v>0.9776157429632386</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2380,7 +2386,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.9780265975407598</v>
+        <v>0.9772795826937521</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2388,7 +2394,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.9777029450421284</v>
+        <v>0.975523123640758</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2396,7 +2402,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.9772425308359716</v>
+        <v>0.9748987405814922</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2404,7 +2410,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.9763525681399741</v>
+        <v>0.9704095770829486</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2412,7 +2418,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.9740059670792096</v>
+        <v>0.9688609175501015</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2420,7 +2426,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.9715765283438849</v>
+        <v>0.9684001143233218</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2428,7 +2434,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.9705717035131283</v>
+        <v>0.9654653547589884</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2436,7 +2442,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.9658770494873368</v>
+        <v>0.963765575268019</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2444,7 +2450,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.9637523858004173</v>
+        <v>0.9632404789288609</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2452,7 +2458,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.9615618996696154</v>
+        <v>0.9610054490191793</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2460,7 +2466,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.9595879649013521</v>
+        <v>0.9577502878224293</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2468,7 +2474,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.958545718716203</v>
+        <v>0.9577361231391368</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2476,7 +2482,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.9563254963895051</v>
+        <v>0.9550694163326705</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2484,7 +2490,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.9537293076995241</v>
+        <v>0.9542984380027977</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2492,7 +2498,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.9537293076995241</v>
+        <v>0.9518774558476721</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2500,7 +2506,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.9492399623183005</v>
+        <v>0.9518774558476721</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2508,7 +2514,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.9491124208115163</v>
+        <v>0.9479257026169856</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2516,7 +2522,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.9485122780387467</v>
+        <v>0.9462786882200764</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2524,7 +2530,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.9483057466067839</v>
+        <v>0.9454495199639079</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2532,7 +2538,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.9452408181613925</v>
+        <v>0.9445034019827996</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2540,7 +2546,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.9421348184922467</v>
+        <v>0.9415782894833362</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2548,7 +2554,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.9402584161013667</v>
+        <v>0.9388949459305458</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2556,7 +2562,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.935619997424356</v>
+        <v>0.9347309582916101</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2564,7 +2570,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.9344763136267633</v>
+        <v>0.9345379027248137</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2572,7 +2578,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.9330745782645948</v>
+        <v>0.932841073239365</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2580,7 +2586,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.9308805433418055</v>
+        <v>0.9304050031958035</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2588,7 +2594,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.9281336771258926</v>
+        <v>0.9271416136338293</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2596,7 +2602,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.9235974053705509</v>
+        <v>0.9224919631936794</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2604,7 +2610,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.9064140976495052</v>
+        <v>0.9148488659878393</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2612,7 +2618,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.8963148586379259</v>
+        <v>0.9024336653206286</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2620,7 +2626,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.8948004622374288</v>
+        <v>0.8931576974606057</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2628,7 +2634,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.8947231718659756</v>
+        <v>0.8914915930391594</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2636,7 +2642,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.8936585623980329</v>
+        <v>0.8889625919437312</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2644,7 +2650,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.8935018124572758</v>
+        <v>0.888531377746939</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2652,7 +2658,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.8903605406131314</v>
+        <v>0.8874536371109896</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2660,7 +2666,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.8902504019382596</v>
+        <v>0.8866359730515114</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2668,7 +2674,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.8900584288187015</v>
+        <v>0.8866359730515114</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2676,7 +2682,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.8900505915870971</v>
+        <v>0.8865997937509182</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2684,7 +2690,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.8900505915870971</v>
+        <v>0.8855091120933767</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2692,7 +2698,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.8885303861566709</v>
+        <v>0.8816094128454699</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2700,7 +2706,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.8816126329077574</v>
+        <v>0.8796624083734992</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2708,7 +2714,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.8786362198550934</v>
+        <v>0.8787157728034911</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2716,7 +2722,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.878179386438469</v>
+        <v>0.8771450113357715</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2724,7 +2730,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.8690155964366479</v>
+        <v>0.8765192524603478</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2732,7 +2738,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.8621811239231905</v>
+        <v>0.8664139085054399</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2740,7 +2746,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.8621370125618779</v>
+        <v>0.8648292730282141</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2748,7 +2754,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.8577689969369273</v>
+        <v>0.8605087883222837</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2756,7 +2762,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.8543876186224635</v>
+        <v>0.8551330235768364</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2764,7 +2770,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.8533654627256237</v>
+        <v>0.8543759072738148</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2772,7 +2778,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.8532946677770687</v>
+        <v>0.8515974232426735</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2780,7 +2786,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.8469215885486747</v>
+        <v>0.8473327835875062</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2788,7 +2794,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.8442157449779724</v>
+        <v>0.8438816869580488</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2796,7 +2802,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.8436998689629844</v>
+        <v>0.8426275995301782</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2804,7 +2810,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.8394729761747786</v>
+        <v>0.8359152282329729</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2812,7 +2818,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.8383208504834365</v>
+        <v>0.8335326709564224</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2820,7 +2826,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.8349039944378531</v>
+        <v>0.8312613892533411</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2828,7 +2834,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.8239873458387605</v>
+        <v>0.8276082194236389</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2836,7 +2842,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.8113526468085115</v>
+        <v>0.8128315349409476</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2844,7 +2850,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.8046711269507081</v>
+        <v>0.8040601418159135</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2852,7 +2858,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.7971276741155462</v>
+        <v>0.7930556226474308</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2860,7 +2866,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.7911670237408273</v>
+        <v>0.7904509478367818</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2868,7 +2874,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.7787295544641422</v>
+        <v>0.7820432042874643</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2876,7 +2882,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.7739027836303825</v>
+        <v>0.7715297951971296</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2884,7 +2890,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.7679150894018418</v>
+        <v>0.757198645892025</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2892,7 +2898,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.7478650536032734</v>
+        <v>0.7452129390246358</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2900,7 +2906,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.7347595932227216</v>
+        <v>0.7359507520075659</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2908,7 +2914,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.7303138657968882</v>
+        <v>0.729271904590453</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2916,7 +2922,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.7275305371802259</v>
+        <v>0.7241939692994857</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2924,7 +2930,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.7205065930118719</v>
+        <v>0.7174267528310949</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2932,7 +2938,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.7182858759559156</v>
+        <v>0.7160902170184551</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2940,7 +2946,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.7094877923973248</v>
+        <v>0.7095299836033093</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2948,7 +2954,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.7022326927865685</v>
+        <v>0.7063677556077486</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2956,7 +2962,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.6912141580212996</v>
+        <v>0.6928375346446765</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2964,7 +2970,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.6808916613789497</v>
+        <v>0.6824778127477096</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2972,7 +2978,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.6733598846593805</v>
+        <v>0.6696099923609355</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2980,7 +2986,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.6693746437105541</v>
+        <v>0.6685913679643405</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2988,7 +2994,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.6585818477643053</v>
+        <v>0.6557210887459108</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2996,7 +3002,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.6336840509908499</v>
+        <v>0.6342571337902472</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3004,7 +3010,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.633085996261181</v>
+        <v>0.6330944531988716</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3012,7 +3018,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.6298490111405939</v>
+        <v>0.6319467845956535</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3020,7 +3026,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.6269411362620709</v>
+        <v>0.6272145048687721</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3028,7 +3034,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.6245523298001641</v>
+        <v>0.6259352061830405</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3036,7 +3042,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.6236567778666395</v>
+        <v>0.6239289962548002</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3044,7 +3050,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.6217513002011081</v>
+        <v>0.6222929063689038</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3052,7 +3058,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.6105657727790486</v>
+        <v>0.6128093917257154</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3060,7 +3066,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.6082157867320876</v>
+        <v>0.6111794231819627</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3068,7 +3074,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.6076630171047144</v>
+        <v>0.6101726446446505</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3076,7 +3082,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.6060941387348304</v>
+        <v>0.605079349479837</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3084,7 +3090,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.6050426313404023</v>
+        <v>0.6040915885332854</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3092,7 +3098,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.600252108171702</v>
+        <v>0.6003928304775186</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3100,7 +3106,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.5997771860045977</v>
+        <v>0.5967007352409643</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3108,7 +3114,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.5981670294704169</v>
+        <v>0.5966747329021447</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3116,7 +3122,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.585284070211888</v>
+        <v>0.5869611299246622</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3124,7 +3130,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.5836044460505412</v>
+        <v>0.5843557574962968</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3132,7 +3138,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.5818252757204077</v>
+        <v>0.5825765871661632</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3140,7 +3146,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.5733583250387446</v>
+        <v>0.5780557074321089</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3148,7 +3154,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.5672545372375926</v>
+        <v>0.5741746407093298</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3156,7 +3162,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.5654030164253383</v>
+        <v>0.5641199265457568</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3164,7 +3170,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.557585507822715</v>
+        <v>0.5550862103829415</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3172,7 +3178,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.5485031658827384</v>
+        <v>0.5477110124828428</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3180,7 +3186,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.5455363425782846</v>
+        <v>0.5464823523839435</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3188,7 +3194,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.5418526175613141</v>
+        <v>0.5414098248393384</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3196,7 +3202,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.5357988568154748</v>
+        <v>0.5388193250043511</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3204,7 +3210,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.5287565659264262</v>
+        <v>0.5290719912418513</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3212,7 +3218,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.49883155532443</v>
+        <v>0.5013616901853926</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3220,7 +3226,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.4907244260063903</v>
+        <v>0.4915590290783878</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3228,7 +3234,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.4876878357935746</v>
+        <v>0.484482245087984</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3236,7 +3242,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.4854828960486188</v>
+        <v>0.4838170867102598</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3244,7 +3250,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4846419674669944</v>
+        <v>0.4815146420803649</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3252,7 +3258,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.478177106058939</v>
+        <v>0.4802155217123254</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3260,7 +3266,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.4677341922538414</v>
+        <v>0.4802155217123254</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3268,7 +3274,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.4664875968042761</v>
+        <v>0.4760869705258215</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3276,7 +3282,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.4664875968042761</v>
+        <v>0.465528698759528</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3284,7 +3290,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.4617736420111438</v>
+        <v>0.4634837665745182</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3292,7 +3298,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.4574085587135963</v>
+        <v>0.4585486879603349</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3300,7 +3306,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.4535965523074434</v>
+        <v>0.4541614020718003</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3308,7 +3314,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.436325692690088</v>
+        <v>0.436189884499727</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3316,7 +3322,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.4355358169201931</v>
+        <v>0.4357884604694506</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3324,7 +3330,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.4272389196153306</v>
+        <v>0.4301118492519114</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3332,7 +3338,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.4221456727917534</v>
+        <v>0.4247023697968531</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3340,7 +3346,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.4207155934185447</v>
+        <v>0.4204761940840913</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3348,7 +3354,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.4115992128304073</v>
+        <v>0.4187530726258033</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3356,7 +3362,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.4024676415406589</v>
+        <v>0.4032068073869173</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3364,7 +3370,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.3995200347186216</v>
+        <v>0.3990050983282822</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3372,7 +3378,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.3947922728042284</v>
+        <v>0.3910716825987088</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3380,7 +3386,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.3879343898658099</v>
+        <v>0.3878087385797846</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3388,7 +3394,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.3856735929221897</v>
+        <v>0.3864276177039923</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3396,7 +3402,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.385073267321864</v>
+        <v>0.3859697422461168</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3404,7 +3410,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.3803144332155479</v>
+        <v>0.3759054558574126</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3412,7 +3418,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.3757263515991847</v>
+        <v>0.3757428094605189</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3420,7 +3426,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.3754308647065094</v>
+        <v>0.3739698257454704</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3428,7 +3434,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3746824473160648</v>
+        <v>0.3726677084543346</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3436,7 +3442,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3698416694918065</v>
+        <v>0.3666589346256663</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3444,7 +3450,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3587871020919366</v>
+        <v>0.363005316779285</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3452,7 +3458,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3552475805477298</v>
+        <v>0.3550008371424185</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3460,7 +3466,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.3473960648995575</v>
+        <v>0.3509855943981353</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3468,7 +3474,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.3445999160388489</v>
+        <v>0.3458204239817242</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3476,7 +3482,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3430155046677053</v>
+        <v>0.3437124983191651</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3484,7 +3490,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3324751032294524</v>
+        <v>0.3319482660621631</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3492,7 +3498,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.3313746979034558</v>
+        <v>0.3282000631589737</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3500,7 +3506,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.326962263507244</v>
+        <v>0.3281617836987416</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3508,7 +3514,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3230364717770458</v>
+        <v>0.327325489694406</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3516,7 +3522,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3219309108226043</v>
+        <v>0.3185309855881544</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3524,7 +3530,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3198559079440841</v>
+        <v>0.3131066746322835</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3532,7 +3538,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3147852791305661</v>
+        <v>0.3119695208096314</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3540,7 +3546,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.311023237908461</v>
+        <v>0.3119695208096314</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3548,7 +3554,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.311023237908461</v>
+        <v>0.3083732175843459</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3556,7 +3562,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.3065292492721903</v>
+        <v>0.3066533927129285</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3564,7 +3570,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.2985760123472678</v>
+        <v>0.3021944724530057</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3572,7 +3578,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.2943902396487725</v>
+        <v>0.2984758649640695</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3580,7 +3586,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.2942160052122333</v>
+        <v>0.2973339190444331</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3588,7 +3594,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.2942160052122333</v>
+        <v>0.2973339190444331</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3596,7 +3602,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.2874911289973479</v>
+        <v>0.2858183088721469</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3604,7 +3610,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.2688846079145379</v>
+        <v>0.2738345308185208</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3612,7 +3618,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.2640982052945484</v>
+        <v>0.2693226619240205</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3620,7 +3626,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.2603226912418566</v>
+        <v>0.2636891227426084</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3628,7 +3634,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.2570305342564752</v>
+        <v>0.2542666526981816</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3636,7 +3642,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.2544686841726234</v>
+        <v>0.2513669340813465</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3644,7 +3650,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2506721739226025</v>
+        <v>0.2494735660405891</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3652,7 +3658,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.2491364575681707</v>
+        <v>0.2462634565158981</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3660,7 +3666,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.241478636667471</v>
+        <v>0.2438539375577959</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3668,7 +3674,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.2305026841960021</v>
+        <v>0.2292589938718526</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3676,7 +3682,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.2302856696662456</v>
+        <v>0.2284918130431535</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3684,7 +3690,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.2257221669569127</v>
+        <v>0.2281225884330411</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3692,7 +3698,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.224803507032737</v>
+        <v>0.2273450792171663</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3700,7 +3706,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.2242487325469378</v>
+        <v>0.2264204395797955</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3708,7 +3714,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.2225701659358559</v>
+        <v>0.2258580991599357</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3716,7 +3722,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2218665415439669</v>
+        <v>0.2258462672776627</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3724,7 +3730,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2218212315975141</v>
+        <v>0.2206226237155009</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3732,7 +3738,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2215711414862895</v>
+        <v>0.2178822355535208</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3740,7 +3746,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2152219731193878</v>
+        <v>0.2177941169764019</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3748,7 +3754,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2141785318498168</v>
+        <v>0.2177142624292203</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3756,7 +3762,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2140105587255163</v>
+        <v>0.2177142624292203</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3764,7 +3770,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2140105587255163</v>
+        <v>0.2177142624292203</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3772,7 +3778,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2140105587255163</v>
+        <v>0.2177142624292203</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3780,7 +3786,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2140105587255163</v>
+        <v>0.2177142624292203</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3788,7 +3794,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2140105587255163</v>
+        <v>0.2130762577536831</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3796,7 +3802,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2138294665630263</v>
+        <v>0.2120392382532479</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3804,7 +3810,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2078791695592712</v>
+        <v>0.2064881999075108</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3812,7 +3818,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2076868077895235</v>
+        <v>0.2055486828271844</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3820,7 +3826,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2056785538843737</v>
+        <v>0.2053141435822075</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3828,7 +3834,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2028978884482204</v>
+        <v>0.2009439076348538</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3836,7 +3842,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.198555416853134</v>
+        <v>0.1991865543842526</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3844,7 +3850,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.198555416853134</v>
+        <v>0.1990888857689876</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3852,7 +3858,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.1973705363780551</v>
+        <v>0.1968797544464334</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3860,7 +3866,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.1921476113385576</v>
+        <v>0.1966484712642269</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3868,7 +3874,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.1913823215800199</v>
+        <v>0.1942510393970556</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3876,7 +3882,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.1892907219367381</v>
+        <v>0.1942510393970556</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3884,7 +3890,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.1892907219367381</v>
+        <v>0.1940211434592116</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3892,7 +3898,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.1877903804245173</v>
+        <v>0.1940211434592116</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3900,7 +3906,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.1863464326638471</v>
+        <v>0.1907524875279247</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3908,7 +3914,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.1861023299778397</v>
+        <v>0.1896646909146507</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3916,7 +3922,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.1847553938624964</v>
+        <v>0.1896646909146507</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3924,7 +3930,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.1847553938624964</v>
+        <v>0.1888596601770747</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3940,7 +3946,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.1816121293906217</v>
+        <v>0.1792288913570623</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3948,7 +3954,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.1780940666439306</v>
+        <v>0.1781588317539187</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3956,7 +3962,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.1742274660474366</v>
+        <v>0.1731095096027238</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3964,7 +3970,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.1665735191248734</v>
+        <v>0.1582823356791954</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3972,7 +3978,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.1598352800892822</v>
+        <v>0.1581310971158654</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3980,7 +3986,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.1565878872393223</v>
+        <v>0.1562004342793752</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3988,7 +3994,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.1547081406855793</v>
+        <v>0.1531127074067413</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3996,7 +4002,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.1521351830676561</v>
+        <v>0.1519062217087457</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4004,7 +4010,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.15180021794688</v>
+        <v>0.1510991925036429</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4012,7 +4018,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.1505797088674545</v>
+        <v>0.1465142898189795</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4020,7 +4026,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.1504825437872335</v>
+        <v>0.1464849730749851</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4028,7 +4034,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.1495309842025763</v>
+        <v>0.1463482493364363</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4036,7 +4042,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.1462635857014121</v>
+        <v>0.1434773816217985</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4044,7 +4050,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.1450303260318857</v>
+        <v>0.1419977442697031</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4052,7 +4058,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.1372082286349554</v>
+        <v>0.1379004634438372</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4060,7 +4066,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.1371019740075767</v>
+        <v>0.1374784879867819</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4068,7 +4074,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.1359557436769316</v>
+        <v>0.1358909226429914</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4076,7 +4082,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1292371761740412</v>
+        <v>0.1340406033543302</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4084,7 +4090,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.1262363705500973</v>
+        <v>0.1339070384264796</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4092,7 +4098,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.1259941857634475</v>
+        <v>0.1277771075471845</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4100,7 +4106,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.124964907410168</v>
+        <v>0.1246936288535883</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4108,7 +4114,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.1241288732531427</v>
+        <v>0.1246936288535883</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4116,7 +4122,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1226134094347784</v>
+        <v>0.1233046574085188</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4124,7 +4130,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.1199728747429516</v>
+        <v>0.123002103140067</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4132,7 +4138,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1185146622116933</v>
+        <v>0.1208435744464706</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4140,7 +4146,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.116736346436082</v>
+        <v>0.1205809748822213</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4148,7 +4154,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1147694977847555</v>
+        <v>0.119670663377615</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4156,7 +4162,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1143983574218477</v>
+        <v>0.119663875861709</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4164,7 +4170,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1138924586590717</v>
+        <v>0.1190016371735256</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4172,7 +4178,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.1138924586590717</v>
+        <v>0.1152784062905583</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4180,7 +4186,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.1133254226261597</v>
+        <v>0.115190203989544</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4188,7 +4194,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1127767420779886</v>
+        <v>0.1149362740663111</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4196,7 +4202,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1125034872140023</v>
+        <v>0.1131806459896394</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4204,7 +4210,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.111675189418287</v>
+        <v>0.1122132888093659</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4212,7 +4218,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.111459812256516</v>
+        <v>0.1104637643201571</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4220,7 +4226,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1071766562745953</v>
+        <v>0.1100344674165488</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4228,7 +4234,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.107130365905131</v>
+        <v>0.1079287486889822</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4236,7 +4242,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.107130365905131</v>
+        <v>0.1079287486889822</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4244,7 +4250,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.106655295238365</v>
+        <v>0.1076905019912391</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4252,7 +4258,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1050977512997089</v>
+        <v>0.1074009729411842</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4260,7 +4266,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.1040314555922011</v>
+        <v>0.107164203744168</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4268,7 +4274,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1037690396135138</v>
+        <v>0.1067667199466991</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4276,7 +4282,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.1034520924968143</v>
+        <v>0.1060820459432839</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4284,7 +4290,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1028661484345141</v>
+        <v>0.10558892851529</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4292,7 +4298,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1028372480443325</v>
+        <v>0.1042870944771863</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4300,7 +4306,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1020628905959058</v>
+        <v>0.1042870944771863</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4308,7 +4314,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.1008636863139047</v>
+        <v>0.1030509746097346</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4316,7 +4322,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.1008066946018591</v>
+        <v>0.1027340274930351</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4324,7 +4330,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.100187979352216</v>
+        <v>0.1021688881366356</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4332,7 +4338,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.1001245158847492</v>
+        <v>0.1021688881366356</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4340,7 +4346,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.1001245158847492</v>
+        <v>0.1015128816118995</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4348,7 +4354,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.09975240669442065</v>
+        <v>0.1014120383770547</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4356,7 +4362,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.09975240669442065</v>
+        <v>0.09929575746445218</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4364,7 +4370,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.09975240669442065</v>
+        <v>0.09735351223203481</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4372,7 +4378,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.09975240669442065</v>
+        <v>0.09708098286662525</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4380,7 +4386,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.09900015632906989</v>
+        <v>0.09691793957423944</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4388,7 +4394,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.09413381856796987</v>
+        <v>0.09691793957423944</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4396,7 +4402,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.0935945679411716</v>
+        <v>0.09691793957423944</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4404,7 +4410,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.09241356034205994</v>
+        <v>0.09691793957423944</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4412,7 +4418,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.09231586920546864</v>
+        <v>0.09619354231854627</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4420,7 +4426,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.09231586920546864</v>
+        <v>0.09600105692030381</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4428,7 +4434,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.09020831858200951</v>
+        <v>0.09583480474662953</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4436,7 +4442,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.08897627138340858</v>
+        <v>0.09578924913162479</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4444,7 +4450,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.08854725248395701</v>
+        <v>0.09225918659098187</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4452,7 +4458,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.086788689734697</v>
+        <v>0.09204420657557955</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4460,7 +4466,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.08519988672578727</v>
+        <v>0.09052324777654697</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4468,7 +4474,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.08026091471544916</v>
+        <v>0.08504034541393879</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4476,7 +4482,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.07971111290317046</v>
+        <v>0.08093066384505798</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4484,7 +4490,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.07879021960230648</v>
+        <v>0.08025590138147365</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4492,7 +4498,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.07851277393481904</v>
+        <v>0.08009980660845883</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4500,7 +4506,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.07839351584649878</v>
+        <v>0.0787542662072489</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4508,7 +4514,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.07839351584649878</v>
+        <v>0.0787542662072489</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4516,7 +4522,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.07572967773431905</v>
+        <v>0.07810393498745039</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4524,7 +4530,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.07492555654506949</v>
+        <v>0.07366894278845582</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4532,7 +4538,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.07466526743894497</v>
+        <v>0.07167037872977056</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4540,7 +4546,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.07430602952205256</v>
+        <v>0.07146411732893232</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4548,7 +4554,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.07416850307608702</v>
+        <v>0.07104790751906376</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4556,7 +4562,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.07404279622823817</v>
+        <v>0.07104790751906376</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4564,7 +4570,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.07404279622823817</v>
+        <v>0.07055487642029146</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4572,7 +4578,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.07351758614420456</v>
+        <v>0.07023804200276884</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4580,7 +4586,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.07135093129637915</v>
+        <v>0.06959021501226004</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4588,7 +4594,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.0712257003054011</v>
+        <v>0.06938891058695762</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4596,7 +4602,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.06861195871182613</v>
+        <v>0.06831398887220974</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4604,7 +4610,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.06850140276875361</v>
+        <v>0.06757785875075673</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4612,7 +4618,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.06673482347692161</v>
+        <v>0.06670622192224518</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4620,7 +4626,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.06490956035619022</v>
+        <v>0.06513950414589997</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4628,7 +4634,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.06179080249786173</v>
+        <v>0.06493320707560479</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4636,7 +4642,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.06054282485104578</v>
+        <v>0.06423873647108036</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4644,7 +4650,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.05908605505313624</v>
+        <v>0.06348339035661854</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4652,7 +4658,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.05865947154476436</v>
+        <v>0.06344509686155897</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4660,7 +4666,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.05761771903067614</v>
+        <v>0.0624043213610721</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4668,7 +4674,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.05749009704583252</v>
+        <v>0.0623124622993203</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4676,7 +4682,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.0571105007793673</v>
+        <v>0.06050157892474073</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4684,7 +4690,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.05497859881553846</v>
+        <v>0.05999517969651791</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4692,7 +4698,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.05482308571445116</v>
+        <v>0.05985308088089369</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4700,7 +4706,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.05392903745025146</v>
+        <v>0.05957515966209925</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4708,7 +4714,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.05360081740755129</v>
+        <v>0.05807039021759586</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4716,7 +4722,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.05338278233857419</v>
+        <v>0.057534188756591</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4724,7 +4730,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.05295126575038078</v>
+        <v>0.05743850337378942</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4732,7 +4738,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.05278761848072255</v>
+        <v>0.0561200108946851</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4740,7 +4746,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.05104852331404941</v>
+        <v>0.05485574724896392</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4748,7 +4754,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.04891368193594903</v>
+        <v>0.05480270572078183</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4756,7 +4762,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.04834690112232898</v>
+        <v>0.05422773105077194</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4764,7 +4770,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.04674273149789321</v>
+        <v>0.05096273380426242</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4772,7 +4778,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.04569907545418839</v>
+        <v>0.05082705985248737</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4780,7 +4786,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.04534253033135793</v>
+        <v>0.05047669021497936</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4788,7 +4794,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.04534253033135793</v>
+        <v>0.05022875818333916</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4796,7 +4802,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.04534253033135793</v>
+        <v>0.04973691262220536</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4804,7 +4810,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.04531884070016878</v>
+        <v>0.04688574020790104</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4812,7 +4818,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.04420169019800735</v>
+        <v>0.04688574020790104</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4820,7 +4826,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.04410693384488584</v>
+        <v>0.04688574020790104</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4828,7 +4834,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.04406009157399304</v>
+        <v>0.04607874879785623</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4836,7 +4842,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.04285945306525951</v>
+        <v>0.04607874879785623</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4844,7 +4850,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.04133134475538514</v>
+        <v>0.04401031798988209</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4852,7 +4858,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.04102363460428804</v>
+        <v>0.0413138743361412</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4860,7 +4866,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.04009050423916216</v>
+        <v>0.04038311103941217</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4868,7 +4874,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.03786988352618459</v>
+        <v>0.04004560194357221</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4876,7 +4882,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.03721397686716887</v>
+        <v>0.0396390209588795</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4884,7 +4890,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.03721397686716887</v>
+        <v>0.0396390209588795</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4892,7 +4898,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.03538297692196024</v>
+        <v>0.03907453581517095</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4900,7 +4906,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.03538297692196024</v>
+        <v>0.03854821668739095</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4908,7 +4914,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.03374198139149653</v>
+        <v>0.03791031483024976</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4916,7 +4922,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.03084838661068612</v>
+        <v>0.03759407082225796</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4924,7 +4930,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.02806998214875267</v>
+        <v>0.0341765087347683</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -4932,7 +4938,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.02731475930271476</v>
+        <v>0.03296687436996892</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -4940,7 +4946,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.0264485403954513</v>
+        <v>0.03013284433066277</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -4948,7 +4954,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.02590494615040484</v>
+        <v>0.02998383954318151</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -4956,7 +4962,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.02534472628997086</v>
+        <v>0.02704135215515313</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -4964,7 +4970,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.02291630177686721</v>
+        <v>0.02648111695541999</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -4972,7 +4978,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.02291630177686721</v>
+        <v>0.02455612451070022</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -4980,7 +4986,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.02272695211388021</v>
+        <v>0.02431562427019895</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -4988,7 +4994,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.02141212570630446</v>
+        <v>0.02356091528244675</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -4996,7 +5002,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.01729923708139891</v>
+        <v>0.0220322832346731</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5004,7 +5010,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.01705873684089765</v>
+        <v>0.02008183465668578</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5012,7 +5018,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.01621790959375935</v>
+        <v>0.02008183465668578</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5020,7 +5026,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.01194652634604165</v>
+        <v>0.0181630810574549</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5028,7 +5034,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.01118945810219407</v>
+        <v>0.0158024296120971</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5036,7 +5042,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.01021310730668246</v>
+        <v>0.01394741218680973</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5044,7 +5050,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.007561804897957769</v>
+        <v>0.01209352344117343</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5052,7 +5058,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.007265481113130967</v>
+        <v>0.01160700802220505</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5060,7 +5066,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.006778965694162586</v>
+        <v>0.01141535164468199</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5068,7 +5074,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.006747243784434254</v>
+        <v>0.007294922705092688</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5076,7 +5082,23 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.003146241992293186</v>
+        <v>0.005081113973767204</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <v>0.004682277018429382</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>0.002565988415827558</v>
       </c>
     </row>
   </sheetData>
